--- a/Results_GRURegression2/CatsACCData/AVData+Memory20.xlsx
+++ b/Results_GRURegression2/CatsACCData/AVData+Memory20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,67 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -443,7 +503,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03241715393960476</v>
+        <v>0.03229050002992153</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.03245676010847091</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03241567425429821</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03251093029975891</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03248489610850811</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03254625387489796</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03234908729791641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03255912847816944</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.03273368626832962</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.03256513737142086</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03290976174175739</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.03248013332486153</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03281431756913662</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.03207599408924579</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03234409131109715</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03321030810475349</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0331447433680296</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03295105881989002</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0329750832170248</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03333836197853089</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.03345938436686993</v>
       </c>
     </row>
   </sheetData>
